--- a/Data/Model 0.0.xlsx
+++ b/Data/Model 0.0.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSE-Education\Cooperation\Cooperation\Cooperation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Cooperation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684"/>
   </bookViews>
   <sheets>
     <sheet name="Model 0.0" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,24 +525,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,9 +558,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -596,8 +592,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Model 0.0</a:t>
+              <a:t>Model</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> 0.0</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -640,9 +641,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Pc = 0.95</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -987,321 +985,313 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93200000000000005</c:v>
+                  <c:v>0.91600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91600000000000004</c:v>
+                  <c:v>0.88300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90500000000000003</c:v>
+                  <c:v>0.85299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.878</c:v>
+                  <c:v>0.81299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86499999999999999</c:v>
+                  <c:v>0.77600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84299999999999997</c:v>
+                  <c:v>0.77300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80200000000000005</c:v>
+                  <c:v>0.74299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78900000000000003</c:v>
+                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75700000000000001</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70699999999999996</c:v>
+                  <c:v>0.72599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69399999999999995</c:v>
+                  <c:v>0.71099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67200000000000004</c:v>
+                  <c:v>0.70799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.629</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>0.65500000000000003</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.64200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="71">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>0.65400000000000003</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="74">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>0.65300000000000002</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.68899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.68899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.66700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.64300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.628</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.63900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.628</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="76">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.67600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.67600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0.63400000000000001</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.65100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.65800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.63300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.61399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.64300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.66400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.67500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.65600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.65300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.628</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.66500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.65600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.65500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.68200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.68200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.67300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.66800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.69099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.68300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.65500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.65800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.68200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.68899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.67300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.65900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.64200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.626</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.61199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.60399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.61699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.621</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.61799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.61699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.59299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.629</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.64400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.63200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.624</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.628</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.66600000000000004</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.67100000000000004</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.68300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.69199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.68799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.70499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.70599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.72699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.72499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.70199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.69399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.67100000000000004</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.64300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.64500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.65300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.628</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.67200000000000004</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.66100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.66800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.67100000000000004</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.67800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.66900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.66200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.64900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.66700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.64700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.64400000000000002</c:v>
-                </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.66</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0606-4BA5-8A00-6FE7440DCE1C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Pc = 0.05</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1646,314 +1636,960 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.374</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47399999999999998</c:v>
+                  <c:v>0.499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52500000000000002</c:v>
+                  <c:v>0.55200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54600000000000004</c:v>
+                  <c:v>0.55800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59399999999999997</c:v>
+                  <c:v>0.58099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59099999999999997</c:v>
+                  <c:v>0.61299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.60699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.60699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>0.61699999999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.64100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.65300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.64300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.65200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.66700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.65500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.65100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.63700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.63200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.63900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.63600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.67100000000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.66200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.66300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.66200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.68799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.67300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.65500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="58">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>0.68400000000000005</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.68100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.67800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.67300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.68700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.67600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.66100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.67700000000000005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.68100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.64700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.67600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.63800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.64900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="63">
                   <c:v>0.64400000000000002</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.61699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.628</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.63500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.63300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.66500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.68300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.68799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.67600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.71299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.68600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="64">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>0.62</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.64800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.623</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.64100000000000001</c:v>
-                </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.64600000000000002</c:v>
+                  <c:v>0.61399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.63800000000000001</c:v>
+                  <c:v>0.64200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0.65400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.66800000000000004</c:v>
+                  <c:v>0.63800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.68300000000000005</c:v>
+                  <c:v>0.61599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>0.68500000000000005</c:v>
                 </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.66200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.63900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.66200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.64800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.63500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.65600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.66900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.67100000000000004</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.67900000000000005</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.67400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.66500000000000004</c:v>
-                </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.67800000000000005</c:v>
+                  <c:v>0.65500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.68100000000000005</c:v>
+                  <c:v>0.64100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.66</c:v>
+                  <c:v>0.64900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.67300000000000004</c:v>
+                  <c:v>0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.64800000000000002</c:v>
+                  <c:v>0.64200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.627</c:v>
+                  <c:v>0.63200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.64100000000000001</c:v>
+                  <c:v>0.63100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.65200000000000002</c:v>
+                  <c:v>0.61599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.65100000000000002</c:v>
+                  <c:v>0.63400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.68500000000000005</c:v>
+                  <c:v>0.63100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.67200000000000004</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.67600000000000005</c:v>
+                  <c:v>0.624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0606-4BA5-8A00-6FE7440DCE1C}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 0.0'!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 0.0'!$D$1:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.67600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1963,11 +2599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1564622927"/>
-        <c:axId val="1564624591"/>
+        <c:axId val="453302576"/>
+        <c:axId val="453290424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1564622927"/>
+        <c:axId val="453302576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2008,8 +2644,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
-                  <a:t>Generation</a:t>
+                  <a:rPr lang="nl-NL" sz="1400"/>
+                  <a:t>Generations</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2066,7 +2702,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2081,12 +2717,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1564624591"/>
+        <c:crossAx val="453290424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1564624591"/>
+        <c:axId val="453290424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,7 +2749,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2126,13 +2762,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
-                  <a:t>Pc</a:t>
+                  <a:rPr lang="nl-NL" sz="1400"/>
+                  <a:t>Fraction of cooperation</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777776E-2"/>
+              <c:y val="0.16858814523184601"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2146,7 +2789,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2184,7 +2827,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2199,7 +2842,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1564622927"/>
+        <c:crossAx val="453302576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2211,38 +2854,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2840,20 +3451,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2872,9 +3483,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2912,14 +3523,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2952,9 +3563,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2984,7 +3595,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3134,15 +3745,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection sqref="A1:C101"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3152,1105 +3763,1408 @@
       <c r="C1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.93200000000000005</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C2">
-        <v>0.374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.91600000000000004</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C3">
-        <v>0.47399999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.499</v>
+      </c>
+      <c r="D3">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.90500000000000003</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="C4">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.878</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="C5">
-        <v>0.54600000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D5">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.86499999999999999</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="C6">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.84299999999999997</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="C7">
-        <v>0.59099999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.80200000000000005</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="C8">
-        <v>0.61699999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.78900000000000003</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="C9">
-        <v>0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.75700000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="C10">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.70699999999999996</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="C11">
-        <v>0.65300000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.69399999999999995</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="C12">
-        <v>0.64300000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D12">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.67200000000000004</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="C13">
-        <v>0.65200000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D13">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.65500000000000003</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="C14">
-        <v>0.66700000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D14">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.64200000000000002</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="C15">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D15">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.65400000000000003</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="C16">
-        <v>0.65100000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D16">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.65300000000000002</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="C17">
-        <v>0.63700000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="D17">
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.68899999999999995</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="C18">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D18">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.68899999999999995</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="C19">
-        <v>0.63200000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.66700000000000004</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="C20">
-        <v>0.63900000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.64300000000000002</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="C21">
-        <v>0.63600000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.625</v>
+      </c>
+      <c r="D21">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.628</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="C22">
-        <v>0.67100000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+      <c r="D22">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.63900000000000001</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="C23">
-        <v>0.66200000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63</v>
+      </c>
+      <c r="D23">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.628</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="C24">
-        <v>0.66300000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="D24">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.63400000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="C25">
-        <v>0.66200000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="D25">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.65100000000000002</v>
+        <v>0.627</v>
       </c>
       <c r="C26">
-        <v>0.68799999999999994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D26">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.65800000000000003</v>
+        <v>0.629</v>
       </c>
       <c r="C27">
-        <v>0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="D27">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.64</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="C28">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D28">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.63300000000000001</v>
+        <v>0.626</v>
       </c>
       <c r="C29">
-        <v>0.68400000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D29">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.61399999999999999</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="C30">
-        <v>0.68100000000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D30">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.64300000000000002</v>
+        <v>0.623</v>
       </c>
       <c r="C31">
-        <v>0.67800000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D31">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.66400000000000003</v>
+        <v>0.621</v>
       </c>
       <c r="C32">
-        <v>0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D32">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.67500000000000004</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="C33">
-        <v>0.68700000000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.65600000000000003</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="C34">
-        <v>0.67600000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="D34">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.65300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="C35">
-        <v>0.66100000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D35">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.628</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="C36">
-        <v>0.67700000000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D36">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="C37">
         <v>0.66500000000000004</v>
       </c>
-      <c r="C37">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.65600000000000003</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="C38">
-        <v>0.68100000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D38">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.65500000000000003</v>
+        <v>0.65</v>
       </c>
       <c r="C39">
-        <v>0.64700000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.68200000000000005</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="C40">
-        <v>0.67600000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D40">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.68200000000000005</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="C41">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D41">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.67300000000000004</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="C42">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D42">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.66800000000000004</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="C43">
-        <v>0.63800000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="D43">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.69099999999999995</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="C44">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.68300000000000005</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="C45">
-        <v>0.64900000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D45">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.65500000000000003</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="C46">
-        <v>0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="D46">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.65</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="C47">
-        <v>0.61699999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D47">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.65800000000000003</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="C48">
-        <v>0.628</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D48">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.68200000000000005</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="C49">
-        <v>0.63500000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D49">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.68899999999999995</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="C50">
-        <v>0.63300000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D50">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.68</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="C51">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D51">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.67300000000000004</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C52">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.625</v>
+      </c>
+      <c r="D52">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.65900000000000003</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="C53">
-        <v>0.68300000000000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D53">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.64200000000000002</v>
+        <v>0.68</v>
       </c>
       <c r="C54">
-        <v>0.68799999999999994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.62</v>
+      </c>
+      <c r="D54">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.626</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="C55">
-        <v>0.67600000000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D55">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.61199999999999999</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C56">
-        <v>0.71299999999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D56">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.60399999999999998</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="C57">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D57">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="C58">
         <v>0.61699999999999999</v>
       </c>
-      <c r="C58">
-        <v>0.68600000000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D58">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.621</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="C59">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.66</v>
+      </c>
+      <c r="D59">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.61799999999999999</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="C60">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D60">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.62</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="C61">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D61">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.61699999999999999</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="C62">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D62">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.59299999999999997</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="C63">
-        <v>0.64800000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D63">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.629</v>
+        <v>0.63</v>
       </c>
       <c r="C64">
-        <v>0.623</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D64">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.64400000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="C65">
-        <v>0.64900000000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.623</v>
+      </c>
+      <c r="D65">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.64400000000000002</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="C66">
-        <v>0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.62</v>
+      </c>
+      <c r="D66">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.63200000000000001</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="C67">
-        <v>0.64600000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="D67">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.624</v>
+        <v>0.628</v>
       </c>
       <c r="C68">
-        <v>0.63800000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D68">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.628</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="C69">
         <v>0.65400000000000003</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.66600000000000004</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="C70">
-        <v>0.66800000000000004</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D70">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.67100000000000004</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="C71">
-        <v>0.68300000000000005</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D71">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.68300000000000005</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C72">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D72">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.68</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="C73">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.626</v>
+      </c>
+      <c r="D73">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.69199999999999995</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="C74">
-        <v>0.66200000000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="D74">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.68799999999999994</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="C75">
-        <v>0.63900000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D75">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.70499999999999996</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="C76">
-        <v>0.66200000000000003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D76">
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.70599999999999996</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="C77">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D77">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.72699999999999998</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="C78">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D78">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.72499999999999998</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="C79">
-        <v>0.64800000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D79">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.70199999999999996</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="C80">
-        <v>0.63500000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="D80">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.69399999999999995</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="C81">
-        <v>0.65600000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="D81">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.68</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="C82">
-        <v>0.66900000000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D82">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.69</v>
+        <v>0.63</v>
       </c>
       <c r="C83">
-        <v>0.67100000000000004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="D83">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.67100000000000004</v>
+        <v>0.626</v>
       </c>
       <c r="C84">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="D84">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.65</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="C85">
-        <v>0.67900000000000005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D85">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.64300000000000002</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="C86">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D86">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.64500000000000002</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="C87">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D87">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.65300000000000002</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="C88">
-        <v>0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D88">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.628</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="C89">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D89">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.67200000000000004</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="C90">
-        <v>0.67800000000000005</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D90">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.66100000000000003</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="C91">
-        <v>0.68100000000000005</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D91">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.66800000000000004</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="C92">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D92">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.67100000000000004</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="C93">
-        <v>0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D93">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.67800000000000005</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="C94">
-        <v>0.64800000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D94">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.66900000000000004</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="C95">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="D95">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.66200000000000003</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="C96">
-        <v>0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D96">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.64900000000000002</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="C97">
-        <v>0.65200000000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D97">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.66700000000000004</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="C98">
-        <v>0.65100000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D98">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.64700000000000002</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="C99">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D99">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.64400000000000002</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="C100">
-        <v>0.67200000000000004</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.63</v>
+      </c>
+      <c r="D100">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.66</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="C101">
-        <v>0.67600000000000005</v>
+        <v>0.624</v>
+      </c>
+      <c r="D101">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Model 0.0.xlsx
+++ b/Data/Model 0.0.xlsx
@@ -641,6 +641,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>95% cooperative</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -650,7 +653,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1292,6 +1295,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>5% cooperative </c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1301,7 +1307,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1943,6 +1949,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>67% cooperative </c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1952,7 +1961,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -2599,11 +2608,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453302576"/>
-        <c:axId val="453290424"/>
+        <c:axId val="354009072"/>
+        <c:axId val="354014952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453302576"/>
+        <c:axId val="354009072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2717,12 +2726,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453290424"/>
+        <c:crossAx val="354014952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453290424"/>
+        <c:axId val="354014952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,7 +2851,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453302576"/>
+        <c:crossAx val="354009072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2854,6 +2863,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3451,16 +3492,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3747,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Model 0.0.xlsx
+++ b/Data/Model 0.0.xlsx
@@ -591,14 +591,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-NL"/>
-              <a:t>Model</a:t>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t>No responsives</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="nl-NL" baseline="0"/>
-              <a:t> 0.0</a:t>
-            </a:r>
-            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2608,11 +2603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354009072"/>
-        <c:axId val="354014952"/>
+        <c:axId val="577875464"/>
+        <c:axId val="577872720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354009072"/>
+        <c:axId val="577875464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2726,12 +2721,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354014952"/>
+        <c:crossAx val="577872720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354014952"/>
+        <c:axId val="577872720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +2846,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354009072"/>
+        <c:crossAx val="577875464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2864,7 +2859,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
